--- a/XScouting/results.xlsx
+++ b/XScouting/results.xlsx
@@ -12,36 +12,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+  <si>
+    <t>Team Number</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>Team Location</t>
+  </si>
+  <si>
+    <t>Match Number</t>
+  </si>
+  <si>
+    <t>Alliance Color</t>
+  </si>
   <si>
     <t>General</t>
   </si>
   <si>
+    <t>Starting Position</t>
+  </si>
+  <si>
+    <t>Robot Makes It To AutoZone</t>
+  </si>
+  <si>
+    <t>Yellow Totes Interacted With</t>
+  </si>
+  <si>
+    <t>Yellow Totes in AutoZone</t>
+  </si>
+  <si>
+    <t>Bins in AutoZone</t>
+  </si>
+  <si>
+    <t>Bin Stack Size</t>
+  </si>
+  <si>
     <t>Autonomous</t>
   </si>
   <si>
-    <t>Teleop</t>
+    <t>Totes Scored</t>
+  </si>
+  <si>
+    <t>Litter Bins Stored</t>
+  </si>
+  <si>
+    <t>Highest Litter Stack</t>
+  </si>
+  <si>
+    <t>Litter in Landfill</t>
+  </si>
+  <si>
+    <t>Recycle Bin Stack Size</t>
+  </si>
+  <si>
+    <t>Cooperation Sets on Platform</t>
+  </si>
+  <si>
+    <t>Cooperation Sets Stacked</t>
+  </si>
+  <si>
+    <t>Totes Knocked Over</t>
+  </si>
+  <si>
+    <t>Number of Fouls</t>
+  </si>
+  <si>
+    <t>Total Points</t>
+  </si>
+  <si>
+    <t>TeleOp</t>
+  </si>
+  <si>
+    <t>Bins on the Field</t>
+  </si>
+  <si>
+    <t>Successful Noodle Throws</t>
   </si>
   <si>
     <t>Human</t>
   </si>
   <si>
+    <t>Auto Score</t>
+  </si>
+  <si>
+    <t>Teleop Score</t>
+  </si>
+  <si>
+    <t>Human Score</t>
+  </si>
+  <si>
+    <t>Overall Score</t>
+  </si>
+  <si>
     <t>Totals</t>
   </si>
   <si>
-    <t>Team Number</t>
-  </si>
-  <si>
-    <t>Team Name</t>
-  </si>
-  <si>
-    <t>Team Location</t>
-  </si>
-  <si>
-    <t>Match Number</t>
-  </si>
-  <si>
-    <t>Alliance Color</t>
+    <t>Full Metal Falcons</t>
+  </si>
+  <si>
+    <t>Middletown CT</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Starting Zone Left</t>
+  </si>
+  <si>
+    <t>Tried but failed</t>
+  </si>
+  <si>
+    <t>AIR Strike</t>
+  </si>
+  <si>
+    <t>Newport County RI</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -66,7 +156,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -81,16 +171,24 @@
       <right style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -104,23 +202,23 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" t="s" s="1">
-        <v>1</v>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" t="s" s="1">
-        <v>2</v>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -131,13 +229,13 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" t="s" s="1">
-        <v>3</v>
+      <c r="V1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" t="s" s="1">
-        <v>4</v>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
@@ -145,19 +243,862 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="G2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="H2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="1">
+      <c r="I2" t="s" s="2">
         <v>9</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="X2" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AB2" t="s" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4557.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K3" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U3" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X3" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB3" t="n" s="3">
+        <v>169.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K4" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X4" t="n" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB4" t="n" s="3">
+        <v>178.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K5" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X5" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB5" t="n" s="3">
+        <v>145.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4557.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E6" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K6" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U6" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X6" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB6" t="n" s="4">
+        <v>169.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K7" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X7" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB7" t="n" s="4">
+        <v>178.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E8" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K8" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U8" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X8" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB8" t="n" s="4">
+        <v>145.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4557.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E9" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K9" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U9" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X9" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB9" t="n" s="5">
+        <v>169.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K10" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U10" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X10" t="n" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB10" t="n" s="5">
+        <v>178.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E11" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K11" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U11" t="n" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X11" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB11" t="n" s="5">
+        <v>145.0</v>
       </c>
     </row>
   </sheetData>
